--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>AMAT</t>
   </si>
@@ -1106,8 +1106,8 @@
       <c r="I21" s="3">
         <v>1918000</v>
       </c>
-      <c r="J21" s="3">
-        <v>855000</v>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <v>833000</v>
@@ -2922,8 +2922,8 @@
       <c r="I83" s="3">
         <v>375000</v>
       </c>
-      <c r="J83" s="3">
-        <v>410000</v>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>422000</v>
@@ -3267,8 +3267,8 @@
       <c r="I94" s="3">
         <v>-161000</v>
       </c>
-      <c r="J94" s="3">
-        <v>215000</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>-4660000</v>
@@ -3447,8 +3447,8 @@
       <c r="I100" s="3">
         <v>-348000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-519000</v>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>-1754000</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>-5000</v>

--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>AMAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44129</v>
+      </c>
+      <c r="E7" s="2">
         <v>43765</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43401</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43037</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42302</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41938</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41574</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41210</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40846</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17202000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14608000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16705000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14698000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10825000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9659000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9072000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7509000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8719000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10517000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9510000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8222000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9188000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8086000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6314000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5707000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5229000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4518000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10812000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12314000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7692000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6386000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7517000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6612000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4511000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3952000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3843000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2991000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2093000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1797000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2053000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2021000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1780000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1538000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1450000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1427000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1319000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2473000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2236000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,24 +927,27 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>347000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>606000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -936,29 +958,32 @@
         <v>19000</v>
       </c>
       <c r="F15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G15" s="3">
         <v>20000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12837000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11258000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12214000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10762000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8673000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7966000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7552000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7083000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8325000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8122000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4365000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3350000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4491000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3936000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2152000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1693000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1520000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>426000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>394000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2395000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,94 +1082,101 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E20" s="3">
         <v>156000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>139000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>78000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4782000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3869000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5087000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4421000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2557000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2072000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1918000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>833000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2683000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E22" s="3">
         <v>237000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>234000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>198000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>155000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>103000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>95000</v>
       </c>
       <c r="J22" s="3">
         <v>95000</v>
@@ -1146,77 +1185,86 @@
         <v>95000</v>
       </c>
       <c r="L22" s="3">
+        <v>95000</v>
+      </c>
+      <c r="M22" s="3">
         <v>59000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4166000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3269000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4396000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3816000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2013000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1598000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1448000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>350000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>316000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2378000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E24" s="3">
         <v>587000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>246000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>297000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>292000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>221000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>376000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>94000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>207000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>452000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2682000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4150000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3519000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1721000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1377000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1072000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>256000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1926000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2682000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4150000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3519000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1721000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1377000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1072000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>256000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1926000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1403,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>24000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1112000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-156000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-139000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-78000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2706000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3038000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3519000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1721000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1377000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1072000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>256000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1926000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2706000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3038000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3519000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1721000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1377000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1072000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>256000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1926000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44129</v>
+      </c>
+      <c r="E38" s="2">
         <v>43765</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43401</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43037</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42302</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41938</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41574</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41210</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40846</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5351000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3129000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3440000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5010000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3406000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4797000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3002000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1711000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2268000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>297000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E42" s="3">
         <v>489000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>590000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2266000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>343000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>168000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>160000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>180000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1061000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5946000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3273000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2737000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2462000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2395000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2366000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1866000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1749000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1811000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1307000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1532000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3904000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3474000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3721000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2930000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2050000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1833000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1567000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1413000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1272000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1701000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E45" s="3">
         <v>377000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>781000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>317000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>188000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>597000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>489000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>527000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>890000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>879000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13369000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10206000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10604000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12918000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8353000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9261000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6967000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5642000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5102000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10355000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1968000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1568000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1143000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>929000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>946000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>935000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1005000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1055000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>931000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1856000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1529000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1407000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1066000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>937000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>892000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>861000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>850000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>910000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>866000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3555000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3581000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3780000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3891000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4064000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4255000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4397000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6228000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1546000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1711000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1766000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>943000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>512000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>460000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>145000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>156000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>162000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22353000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19024000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17633000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19419000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14570000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15308000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13174000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12043000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12102000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13861000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,61 +2267,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="E57" s="3">
         <v>958000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>996000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>945000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>813000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>658000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>613000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>582000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>396000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>484000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>600000</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -2200,144 +2333,159 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3335000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2889000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4273000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3170000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2619000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1940000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2210000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1861000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1899000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2310000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4459000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4447000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3922000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4115000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3632000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3798000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2823000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2443000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2265000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2794000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4713000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5309000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5304000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3125000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3342000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1947000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1946000</v>
       </c>
       <c r="K61" s="3">
         <v>1946000</v>
       </c>
       <c r="L61" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="M61" s="3">
         <v>1947000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1650000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1557000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>651000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>597000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>555000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>536000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>566000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>971000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>320000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11775000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10810000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10788000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10070000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7353000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7695000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5306000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4955000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4867000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5061000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27209000</v>
+      </c>
+      <c r="E72" s="3">
         <v>24386000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20880000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18258000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15252000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13967000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13072000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12487000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12700000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13029000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10578000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8214000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6845000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9349000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7217000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7613000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7868000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7088000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7235000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8800000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44129</v>
+      </c>
+      <c r="E80" s="2">
         <v>43765</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43401</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43037</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42302</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41938</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41574</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41210</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40846</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2706000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3038000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3519000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1721000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1377000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1072000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>256000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1926000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E83" s="3">
         <v>363000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>407000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>389000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>371000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>375000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>422000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>246000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3804000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3247000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3787000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3789000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2566000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1163000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>623000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1851000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2429000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-441000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-622000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-345000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-253000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-215000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-241000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-197000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-162000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-209000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-443000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>571000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2526000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-425000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-281000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-161000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4660000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>707000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-787000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-771000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-605000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-430000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-444000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-487000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-485000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-456000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-434000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-397000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1337000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3115000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5928000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>341000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3532000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>913000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-348000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1754000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>960000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3480,49 +3728,55 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-311000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1570000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1604000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1391000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1795000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1291000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>319000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4568000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4102000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AMAT</t>
   </si>
@@ -1142,8 +1142,8 @@
       <c r="I21" s="3">
         <v>2072000</v>
       </c>
-      <c r="J21" s="3">
-        <v>1918000</v>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4995000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5351000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3129000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3440000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5010000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3406000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4797000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3002000</v>
       </c>
       <c r="K41" s="3">
         <v>1711000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E42" s="3">
         <v>387000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>489000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>590000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2266000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>343000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>168000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>160000</v>
       </c>
       <c r="K42" s="3">
         <v>180000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3273000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2737000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2462000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2395000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2366000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1866000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1749000</v>
       </c>
       <c r="K43" s="3">
         <v>1811000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4309000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3904000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3474000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3721000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2930000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2050000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1833000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1567000</v>
       </c>
       <c r="K44" s="3">
         <v>1413000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="E45" s="3">
         <v>454000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>377000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>781000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>317000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>188000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>597000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>489000</v>
       </c>
       <c r="K45" s="3">
         <v>527000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16107000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13369000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10206000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10604000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12918000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8353000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9261000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6967000</v>
       </c>
       <c r="K46" s="3">
         <v>5642000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2055000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1798000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1968000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1568000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1143000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>929000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>946000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>935000</v>
       </c>
       <c r="K47" s="3">
         <v>1005000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1856000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1529000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1407000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1066000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>937000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>892000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>861000</v>
       </c>
       <c r="K48" s="3">
         <v>850000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3583000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3619000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3555000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3581000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3780000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3891000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4064000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4255000</v>
       </c>
       <c r="K49" s="3">
         <v>4397000</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1711000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1766000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>943000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>512000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>460000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>156000</v>
       </c>
       <c r="K52" s="3">
         <v>149000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25825000</v>
+      </c>
+      <c r="E54" s="3">
         <v>22353000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19024000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17633000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19419000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14570000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15308000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>13174000</v>
       </c>
       <c r="K54" s="3">
         <v>12043000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4268000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1124000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>958000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>996000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>945000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>813000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>658000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>613000</v>
       </c>
       <c r="K57" s="3">
         <v>582000</v>
@@ -2309,26 +2309,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>600000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2076000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3335000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2889000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4273000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3170000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2619000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1940000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2210000</v>
       </c>
       <c r="K59" s="3">
         <v>1861000</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6344000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4459000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4447000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3922000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4115000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3632000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3798000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2823000</v>
       </c>
       <c r="K60" s="3">
         <v>2443000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5452000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5448000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4713000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5309000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5304000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3125000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3342000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1947000</v>
       </c>
       <c r="K61" s="3">
         <v>1946000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1868000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1650000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1557000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>597000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>555000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>536000</v>
       </c>
       <c r="K62" s="3">
         <v>566000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13578000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11775000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10810000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10788000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10070000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7353000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7695000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5306000</v>
       </c>
       <c r="K66" s="3">
         <v>4955000</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
         <v>27209000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>24386000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20880000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18258000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15252000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13967000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>13072000</v>
       </c>
       <c r="K72" s="3">
         <v>12487000</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12247000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10578000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8214000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6845000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9349000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7217000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7613000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>7868000</v>
       </c>
       <c r="K76" s="3">
         <v>7088000</v>
@@ -3120,8 +3120,8 @@
       <c r="I83" s="3">
         <v>371000</v>
       </c>
-      <c r="J83" s="3">
-        <v>375000</v>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3496,8 +3496,8 @@
       <c r="I94" s="3">
         <v>-281000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-161000</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -3692,8 +3692,8 @@
       <c r="I100" s="3">
         <v>913000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-348000</v>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -3728,8 +3728,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AMAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44129</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43765</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43401</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43037</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42673</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42302</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41938</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41574</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41210</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40846</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23063000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17202000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14608000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16705000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14698000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10825000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9659000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9072000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7509000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8719000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10517000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12149000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9510000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8222000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9188000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8086000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6314000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5707000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5229000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4518000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10812000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12314000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10914000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7692000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6386000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7517000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6612000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4511000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3952000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3843000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2991000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2093000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1797000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2484000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2233000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2053000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2021000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1780000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1538000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1450000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1427000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1319000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2473000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2236000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,14 +925,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>311000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -930,29 +949,32 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>347000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>606000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-8000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="3">
         <v>19000</v>
@@ -961,29 +983,32 @@
         <v>19000</v>
       </c>
       <c r="G15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H15" s="3">
         <v>20000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16174000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12837000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11258000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12214000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10762000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8673000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7966000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7552000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7083000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8325000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8122000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6889000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4365000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3350000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4491000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3936000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2152000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1693000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1520000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>426000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>394000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2395000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,103 +1115,110 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E20" s="3">
         <v>41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>156000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>139000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>78000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>42000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7401000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4782000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3869000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5087000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4421000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2557000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2072000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>833000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2683000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>240000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>237000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>234000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>198000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>155000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>103000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>95000</v>
       </c>
       <c r="K22" s="3">
         <v>95000</v>
@@ -1188,83 +1227,92 @@
         <v>95000</v>
       </c>
       <c r="M22" s="3">
+        <v>95000</v>
+      </c>
+      <c r="N22" s="3">
         <v>59000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6771000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4166000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3269000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4396000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3816000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2013000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1598000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1448000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>316000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2378000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E24" s="3">
         <v>547000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>587000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>246000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>297000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>292000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>221000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>376000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>207000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>452000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3619000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2682000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4150000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3519000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1721000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1377000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1072000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>256000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1926000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3619000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2682000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4150000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3519000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1721000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1377000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1072000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1926000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1416,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>24000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1112000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1439,12 +1499,15 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-156000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-139000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-78000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-42000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3619000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2706000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3038000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3519000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1721000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1377000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1072000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1926000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3619000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2706000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3038000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3519000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1721000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1377000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1072000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1926000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44129</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43765</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43401</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43037</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42673</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42302</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41938</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41574</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41210</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40846</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,8 +1817,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1759,17 +1845,20 @@
         <v>4797000</v>
       </c>
       <c r="K41" s="3">
+        <v>4797000</v>
+      </c>
+      <c r="L41" s="3">
         <v>1711000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2268000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>297000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1795,22 +1884,25 @@
         <v>168000</v>
       </c>
       <c r="K42" s="3">
+        <v>168000</v>
+      </c>
+      <c r="L42" s="3">
         <v>180000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1061000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5946000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4953000</v>
+        <v>5747000</v>
       </c>
       <c r="E43" s="3">
         <v>3273000</v>
@@ -1831,17 +1923,20 @@
         <v>1866000</v>
       </c>
       <c r="K43" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="L43" s="3">
         <v>1811000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1307000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1532000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1867,22 +1962,25 @@
         <v>1833000</v>
       </c>
       <c r="K44" s="3">
+        <v>1833000</v>
+      </c>
+      <c r="L44" s="3">
         <v>1413000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1272000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1701000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1386000</v>
+        <v>592000</v>
       </c>
       <c r="E45" s="3">
         <v>454000</v>
@@ -1903,17 +2001,20 @@
         <v>597000</v>
       </c>
       <c r="K45" s="3">
+        <v>597000</v>
+      </c>
+      <c r="L45" s="3">
         <v>527000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>890000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>879000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1939,22 +2040,25 @@
         <v>9261000</v>
       </c>
       <c r="K46" s="3">
+        <v>9261000</v>
+      </c>
+      <c r="L46" s="3">
         <v>5642000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5102000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10355000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2055000</v>
+        <v>2284000</v>
       </c>
       <c r="E47" s="3">
         <v>1798000</v>
@@ -1975,22 +2079,25 @@
         <v>946000</v>
       </c>
       <c r="K47" s="3">
+        <v>946000</v>
+      </c>
+      <c r="L47" s="3">
         <v>1005000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1055000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>931000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1934000</v>
+        <v>2228000</v>
       </c>
       <c r="E48" s="3">
         <v>1856000</v>
@@ -2011,17 +2118,20 @@
         <v>892000</v>
       </c>
       <c r="K48" s="3">
+        <v>892000</v>
+      </c>
+      <c r="L48" s="3">
         <v>850000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>910000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>866000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2047,17 +2157,20 @@
         <v>4064000</v>
       </c>
       <c r="K49" s="3">
+        <v>4064000</v>
+      </c>
+      <c r="L49" s="3">
         <v>4397000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6228000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1546000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,14 +2243,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2146000</v>
+        <v>1623000</v>
       </c>
       <c r="E52" s="3">
         <v>1711000</v>
@@ -2155,17 +2274,20 @@
         <v>145000</v>
       </c>
       <c r="K52" s="3">
+        <v>145000</v>
+      </c>
+      <c r="L52" s="3">
         <v>149000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>162000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>163000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,9 +2321,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2227,17 +2352,20 @@
         <v>15308000</v>
       </c>
       <c r="K54" s="3">
+        <v>15308000</v>
+      </c>
+      <c r="L54" s="3">
         <v>12043000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12102000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13861000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,13 +2397,14 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4268000</v>
+        <v>1472000</v>
       </c>
       <c r="E57" s="3">
         <v>1124000</v>
@@ -2295,17 +2425,20 @@
         <v>658000</v>
       </c>
       <c r="K57" s="3">
+        <v>658000</v>
+      </c>
+      <c r="L57" s="3">
         <v>582000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>396000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>484000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2330,23 +2463,26 @@
       <c r="J58" s="3">
         <v>1200000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
+      <c r="K58" s="3">
+        <v>1200000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2076000</v>
+        <v>4872000</v>
       </c>
       <c r="E59" s="3">
         <v>3335000</v>
@@ -2367,17 +2503,20 @@
         <v>1940000</v>
       </c>
       <c r="K59" s="3">
+        <v>1940000</v>
+      </c>
+      <c r="L59" s="3">
         <v>1861000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1899000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2310000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2403,17 +2542,20 @@
         <v>3798000</v>
       </c>
       <c r="K60" s="3">
+        <v>3798000</v>
+      </c>
+      <c r="L60" s="3">
         <v>2443000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2265000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2794000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2439,17 +2581,20 @@
         <v>3342000</v>
       </c>
       <c r="K61" s="3">
-        <v>1946000</v>
+        <v>3342000</v>
       </c>
       <c r="L61" s="3">
         <v>1946000</v>
       </c>
       <c r="M61" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="N61" s="3">
         <v>1947000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2475,17 +2620,20 @@
         <v>555000</v>
       </c>
       <c r="K62" s="3">
+        <v>555000</v>
+      </c>
+      <c r="L62" s="3">
         <v>566000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>971000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>320000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,9 +2745,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2619,17 +2776,20 @@
         <v>7695000</v>
       </c>
       <c r="K66" s="3">
+        <v>7695000</v>
+      </c>
+      <c r="L66" s="3">
         <v>4955000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4867000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5061000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,14 +2957,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>32246000</v>
       </c>
       <c r="E72" s="3">
         <v>27209000</v>
@@ -2815,17 +2988,20 @@
         <v>13967000</v>
       </c>
       <c r="K72" s="3">
+        <v>13967000</v>
+      </c>
+      <c r="L72" s="3">
         <v>12487000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12700000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13029000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,9 +3113,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2959,17 +3144,20 @@
         <v>7613000</v>
       </c>
       <c r="K76" s="3">
+        <v>7613000</v>
+      </c>
+      <c r="L76" s="3">
         <v>7088000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7235000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8800000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44129</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43765</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43401</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43037</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42673</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42302</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41938</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41574</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41210</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40846</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5888000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3619000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2706000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3038000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3519000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1721000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1377000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1072000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1926000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E83" s="3">
         <v>376000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>363000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>407000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>389000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>371000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
         <v>422000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>246000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5442000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3804000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3247000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3787000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3789000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2566000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1163000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>623000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1851000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2429000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-668000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-422000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-441000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-622000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-345000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-253000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-215000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-241000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-197000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-162000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-209000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1216000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-130000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-443000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>571000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2526000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-425000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-281000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4660000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>707000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-838000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-787000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-771000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-605000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-430000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-444000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-487000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-485000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-456000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-434000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-397000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4591000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1337000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3115000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5928000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>341000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3532000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>913000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1754000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>960000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3728,55 +3976,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-365000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2337000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-311000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1570000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1604000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1391000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1795000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1291000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>319000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4568000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4102000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AMAT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>AMAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44129</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43765</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43401</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43037</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42673</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42302</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41938</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41574</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41210</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40846</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25785000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23063000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17202000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14608000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16705000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14698000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10825000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9659000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9072000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7509000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8719000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10517000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13792000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12149000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9510000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8222000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9188000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8086000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6314000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5707000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5229000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4518000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10812000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12314000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11993000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10914000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7692000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6386000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7517000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6612000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4511000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3952000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3843000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2991000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2093000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1797000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2484000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2233000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2053000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2021000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1780000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1538000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1450000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1427000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1319000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2473000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2236000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>311000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -952,32 +971,35 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>347000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>606000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-8000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="3">
         <v>20000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>19000</v>
       </c>
       <c r="F15" s="3">
         <v>19000</v>
@@ -986,29 +1008,32 @@
         <v>19000</v>
       </c>
       <c r="H15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I15" s="3">
         <v>20000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>33000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>16000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17997000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16174000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12837000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11258000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12214000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10762000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8673000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7966000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7552000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7083000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8325000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8122000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7788000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6889000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4365000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3350000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4491000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3936000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2152000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1693000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1520000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>426000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>394000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2395000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,112 +1148,119 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E20" s="3">
         <v>118000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>156000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>139000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>78000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>42000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8271000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7401000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4782000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3869000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5087000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4421000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2557000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2072000</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>833000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2683000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>237000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>234000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>198000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>155000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>103000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>95000</v>
       </c>
       <c r="L22" s="3">
         <v>95000</v>
@@ -1230,89 +1269,98 @@
         <v>95000</v>
       </c>
       <c r="N22" s="3">
+        <v>95000</v>
+      </c>
+      <c r="O22" s="3">
         <v>59000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7599000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6771000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4166000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3269000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4396000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3816000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2013000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1598000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1448000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>316000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2378000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="E24" s="3">
         <v>883000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>547000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>587000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>246000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>297000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>292000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>221000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>376000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>207000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>452000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6525000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5888000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3619000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2682000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4150000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3519000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1721000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1377000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1072000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>256000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1926000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6525000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5888000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3619000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2682000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4150000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3519000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1721000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1377000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1072000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>256000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1926000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,26 +1523,29 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>24000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1112000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1502,12 +1562,15 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-118000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-156000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-139000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-78000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-42000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6525000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5888000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3619000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2706000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3038000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3519000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1721000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1377000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1072000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1926000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6525000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5888000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3619000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2706000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3038000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3519000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1721000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1377000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1072000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1926000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44129</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43765</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43401</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43037</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42673</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42302</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41938</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41574</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41210</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40846</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4995000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5351000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3129000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3440000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5010000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3406000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>4797000</v>
       </c>
       <c r="K41" s="3">
         <v>4797000</v>
       </c>
       <c r="L41" s="3">
+        <v>4797000</v>
+      </c>
+      <c r="M41" s="3">
         <v>1711000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2268000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>297000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E42" s="3">
         <v>464000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>387000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>489000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>590000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2266000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>343000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>168000</v>
       </c>
       <c r="K42" s="3">
         <v>168000</v>
       </c>
       <c r="L42" s="3">
+        <v>168000</v>
+      </c>
+      <c r="M42" s="3">
         <v>180000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1061000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5946000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6702000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5747000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3273000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2737000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2462000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2395000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2366000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1866000</v>
       </c>
       <c r="K43" s="3">
         <v>1866000</v>
       </c>
       <c r="L43" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="M43" s="3">
         <v>1811000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1307000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1532000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5932000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4309000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3904000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3474000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3721000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2930000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2050000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1833000</v>
       </c>
       <c r="K44" s="3">
         <v>1833000</v>
       </c>
       <c r="L44" s="3">
+        <v>1833000</v>
+      </c>
+      <c r="M44" s="3">
         <v>1413000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1272000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1701000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E45" s="3">
         <v>592000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>454000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>377000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>781000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>317000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>597000</v>
       </c>
       <c r="K45" s="3">
         <v>597000</v>
       </c>
       <c r="L45" s="3">
+        <v>597000</v>
+      </c>
+      <c r="M45" s="3">
         <v>527000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>890000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>879000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15925000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16107000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13369000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10206000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10604000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12918000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8353000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9261000</v>
       </c>
       <c r="K46" s="3">
         <v>9261000</v>
       </c>
       <c r="L46" s="3">
+        <v>9261000</v>
+      </c>
+      <c r="M46" s="3">
         <v>5642000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5102000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10355000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2671000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2284000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1798000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1968000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1568000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1143000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>929000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>946000</v>
       </c>
       <c r="K47" s="3">
         <v>946000</v>
       </c>
       <c r="L47" s="3">
+        <v>946000</v>
+      </c>
+      <c r="M47" s="3">
         <v>1005000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1055000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>931000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2228000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1856000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1529000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1407000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1066000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>937000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>892000</v>
       </c>
       <c r="K48" s="3">
         <v>892000</v>
       </c>
       <c r="L48" s="3">
+        <v>892000</v>
+      </c>
+      <c r="M48" s="3">
         <v>850000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>910000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>866000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4039000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3583000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3619000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3555000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3581000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3780000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3891000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4064000</v>
       </c>
       <c r="K49" s="3">
         <v>4064000</v>
       </c>
       <c r="L49" s="3">
+        <v>4064000</v>
+      </c>
+      <c r="M49" s="3">
         <v>4397000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6228000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1546000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1623000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1711000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1766000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>943000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>512000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>460000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>145000</v>
       </c>
       <c r="K52" s="3">
         <v>145000</v>
       </c>
       <c r="L52" s="3">
+        <v>145000</v>
+      </c>
+      <c r="M52" s="3">
         <v>149000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>163000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26726000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25825000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22353000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19024000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17633000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19419000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14570000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>15308000</v>
       </c>
       <c r="K54" s="3">
         <v>15308000</v>
       </c>
       <c r="L54" s="3">
+        <v>15308000</v>
+      </c>
+      <c r="M54" s="3">
         <v>12043000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12102000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13861000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1755000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1472000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1124000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>958000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>996000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>945000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>813000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>658000</v>
       </c>
       <c r="K57" s="3">
         <v>658000</v>
       </c>
       <c r="L57" s="3">
+        <v>658000</v>
+      </c>
+      <c r="M57" s="3">
         <v>582000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>396000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>484000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>600000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1200000</v>
       </c>
       <c r="K58" s="3">
         <v>1200000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
+      <c r="L58" s="3">
+        <v>1200000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5624000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4872000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3335000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2889000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4273000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3170000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2619000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1940000</v>
       </c>
       <c r="K59" s="3">
         <v>1940000</v>
       </c>
       <c r="L59" s="3">
+        <v>1940000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1861000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1899000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2310000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7379000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6344000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4459000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4447000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3922000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4115000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3632000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3798000</v>
       </c>
       <c r="K60" s="3">
         <v>3798000</v>
       </c>
       <c r="L60" s="3">
+        <v>3798000</v>
+      </c>
+      <c r="M60" s="3">
         <v>2443000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2265000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2794000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5452000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5448000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4713000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5309000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5304000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3125000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3342000</v>
       </c>
       <c r="K61" s="3">
         <v>3342000</v>
       </c>
       <c r="L61" s="3">
-        <v>1946000</v>
+        <v>3342000</v>
       </c>
       <c r="M61" s="3">
         <v>1946000</v>
       </c>
       <c r="N61" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="O61" s="3">
         <v>1947000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1782000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1868000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1650000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1557000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>597000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>555000</v>
       </c>
       <c r="K62" s="3">
         <v>555000</v>
       </c>
       <c r="L62" s="3">
+        <v>555000</v>
+      </c>
+      <c r="M62" s="3">
         <v>566000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>971000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>320000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14532000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13578000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11775000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10810000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10788000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10070000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7353000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>7695000</v>
       </c>
       <c r="K66" s="3">
         <v>7695000</v>
       </c>
       <c r="L66" s="3">
+        <v>7695000</v>
+      </c>
+      <c r="M66" s="3">
         <v>4955000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4867000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5061000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37892000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32246000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27209000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24386000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20880000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18258000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15252000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>13967000</v>
       </c>
       <c r="K72" s="3">
         <v>13967000</v>
       </c>
       <c r="L72" s="3">
+        <v>13967000</v>
+      </c>
+      <c r="M72" s="3">
         <v>12487000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12700000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13029000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12194000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12247000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10578000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8214000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6845000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9349000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7217000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>7613000</v>
       </c>
       <c r="K76" s="3">
         <v>7613000</v>
       </c>
       <c r="L76" s="3">
+        <v>7613000</v>
+      </c>
+      <c r="M76" s="3">
         <v>7088000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7235000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8800000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44129</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43765</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43401</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43037</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42673</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42302</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41938</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41574</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41210</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40846</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6525000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5888000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3619000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2706000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3038000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3519000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1721000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1377000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1072000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1926000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E83" s="3">
         <v>394000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>376000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>363000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>407000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>389000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>371000</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N83" s="3">
         <v>422000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>246000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5399000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5442000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3804000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3247000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3787000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3789000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2566000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1163000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>623000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1851000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2429000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-787000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-668000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-422000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-441000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-622000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-345000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-253000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-215000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-241000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-197000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-162000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-209000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1357000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1216000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-130000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-443000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>571000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2526000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-425000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-281000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4660000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>707000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-873000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-838000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-787000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-771000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-605000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-430000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-444000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-487000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-485000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-456000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-434000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-397000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7043000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4591000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1337000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3115000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5928000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>341000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3532000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>913000</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1754000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>960000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3979,58 +4227,64 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3001000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-365000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2337000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-311000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1570000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1604000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1391000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1795000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1291000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>319000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4568000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4102000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
